--- a/app/server/static/templates/reports/Tank_Recheck_Report_Template.xlsx
+++ b/app/server/static/templates/reports/Tank_Recheck_Report_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parcsystems.sharepoint.com/projects/Shared Documents/MALS/CDOGS/Development/MALS_Templates/Reports/Dairy-Tank_Re-Check/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MALS\app\server\static\templates\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{5DA06C84-35AF-48FE-B162-623DBF70DEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F71905A-8113-D645-9569-787DE34FE72F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846E8A42-0CA5-4E52-A20F-694AC661E6C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16720" yWindow="-13740" windowWidth="23260" windowHeight="12580" xr2:uid="{41D8FF61-F282-45CD-B792-5CE3B8728CAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{41D8FF61-F282-45CD-B792-5CE3B8728CAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>TOTAL COUNT</t>
   </si>
   <si>
-    <t>Date &amp; Time Report Created</t>
-  </si>
-  <si>
     <t>{d.DateTime}</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>{d.Reg[i].TankCapacity}</t>
+  </si>
+  <si>
+    <t>Date &amp; Time Report Created (UTC)</t>
   </si>
 </sst>
 </file>
@@ -507,51 +507,51 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -560,7 +560,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -574,71 +574,71 @@
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -648,12 +648,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8CBF3948AF16E4A9427EB9CB0C3AFDB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f00dee740a70860da74dc5110d51704">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc8b8595-9fa1-49bc-a016-2621e7bde64e" xmlns:ns3="e1c8ebbc-f196-4c28-98e9-1900bd408e79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2351f42212ae562663f11aa838f8e3a4" ns2:_="" ns3:_="">
     <xsd:import namespace="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
@@ -876,6 +870,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -886,23 +886,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9E41D9A-B96D-4AEF-8647-6B281158DD43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e1c8ebbc-f196-4c28-98e9-1900bd408e79"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B3A637-0975-4E7B-B49B-2C34C9D8E29B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -921,6 +904,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9E41D9A-B96D-4AEF-8647-6B281158DD43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="bc8b8595-9fa1-49bc-a016-2621e7bde64e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e1c8ebbc-f196-4c28-98e9-1900bd408e79"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{459AFAE6-285E-4EEA-AEEF-08DFBD478119}">
   <ds:schemaRefs>
